--- a/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\SNEPIBITools\inst\shiny-examples\SNEPtools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B437A288-809E-49E0-999A-E237C1D282B4}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{408D756F-BB07-4E82-8727-32CE5DF65CC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
-    <sheet name="table1" sheetId="3" r:id="rId1"/>
-    <sheet name="table3" sheetId="1" r:id="rId2"/>
+    <sheet name="Inst_table1" sheetId="3" r:id="rId1"/>
+    <sheet name="Back_table1" sheetId="1" r:id="rId2"/>
     <sheet name="IBI_data" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk51855215" localSheetId="1">table3!#REF!</definedName>
+    <definedName name="_Hlk51855215" localSheetId="1">Back_table1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,29 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
-  <si>
-    <t>Metric abbreviation</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Scoring formula</t>
   </si>
   <si>
-    <t>Dec.</t>
-  </si>
-  <si>
-    <t>Inc.</t>
-  </si>
-  <si>
-    <t>pt_ffg_pred</t>
-  </si>
-  <si>
-    <t>Percent taxa - Functional Feeding Group (FFG) - predator (PR)</t>
-  </si>
-  <si>
     <t>Input Column Name</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t>Representing in the voltanism attirbute for an invertebrate.</t>
   </si>
   <si>
-    <t>Metric Description</t>
-  </si>
-  <si>
     <t>Index Region</t>
   </si>
   <si>
@@ -163,54 +142,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>pi_OET</t>
-  </si>
-  <si>
-    <t>pt_NonIns</t>
-  </si>
-  <si>
-    <t>pt_POET</t>
-  </si>
-  <si>
-    <t>pt_tv_toler</t>
-  </si>
-  <si>
-    <t>pt_volt_semi</t>
-  </si>
-  <si>
-    <t>Percent tolerant taxa</t>
-  </si>
-  <si>
-    <t>Percent taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
-  </si>
-  <si>
-    <t>Percent individuals - Orders Odonata, Ephemeroptera, and Trichoptera</t>
-  </si>
-  <si>
-    <t>Percent taxa - not Class Insecta</t>
-  </si>
-  <si>
-    <t>Percent  taxa - semivoltine (SEMI)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 49</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 32</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 40</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 12</t>
-  </si>
-  <si>
-    <t>100*(46 -metric value)/ 42</t>
-  </si>
-  <si>
-    <t>100*(36 -metric value)/ 33</t>
-  </si>
-  <si>
     <t>SNEP IBI Stress Sites</t>
   </si>
   <si>
@@ -221,13 +152,61 @@
   </si>
   <si>
     <t>LowGradientIBI</t>
+  </si>
+  <si>
+    <t>% POET taxa (Plecoptera, Odonata, Ephemeroptera, and Trichoptera) (pt_POET)</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>100*(metric)/40</t>
+  </si>
+  <si>
+    <t>% Predator taxa (pt_ffg_pred)</t>
+  </si>
+  <si>
+    <t>100*(metric)/32</t>
+  </si>
+  <si>
+    <t>% Non-insect taxa (pt_NonIns)</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>100*(46-metric)/42</t>
+  </si>
+  <si>
+    <t>% OET individuals (Odonata, Ephemeroptera, and Trichoptera) (pi_OET)</t>
+  </si>
+  <si>
+    <t>100*(metric)/49</t>
+  </si>
+  <si>
+    <t>% Tolerant taxa (pt_tv_toler)</t>
+  </si>
+  <si>
+    <t>100*(36-metric)/33</t>
+  </si>
+  <si>
+    <t>% Semivoltine taxa (pt_volt_semi)</t>
+  </si>
+  <si>
+    <t>100*(metric)/12</t>
+  </si>
+  <si>
+    <t>Metric (abbrev)</t>
+  </si>
+  <si>
+    <t>Response to stress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,16 +214,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,13 +250,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +600,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,109 +612,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -701,119 +725,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F79B44-77D1-422F-8B96-8F5C8A5AA434}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -837,30 +840,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -916,6 +919,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1138,15 +1150,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
@@ -1165,6 +1168,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1181,12 +1192,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\SNEPIBITools\inst\shiny-examples\SNEPtools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{408D756F-BB07-4E82-8727-32CE5DF65CC7}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D570955E-BFA5-46D3-A3BA-59F867A8C9DE}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Inst_table1" sheetId="3" r:id="rId1"/>
@@ -38,89 +38,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Scoring formula</t>
   </si>
   <si>
-    <t>Input Column Name</t>
-  </si>
-  <si>
-    <t>Input Options</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>INDEX_NAME</t>
   </si>
   <si>
     <t>INDEX_REGION</t>
   </si>
   <si>
-    <t>Describing the Site Class</t>
-  </si>
-  <si>
     <t>EXCLUDE</t>
   </si>
   <si>
-    <t>TRUE/FALSE</t>
-  </si>
-  <si>
-    <t>“TRUE” if the taxon is also represented by another taxon at a more refined taxonomic level in the same sample; otherwise “FALSE”</t>
-  </si>
-  <si>
     <t>NONTARGET</t>
   </si>
   <si>
-    <t>“TRUE” if the record was intended and valid for index calculation. “FALSE” if the record is not valid (e.g., terrestrial organism or counted after the official subsample).</t>
-  </si>
-  <si>
     <t>FFG</t>
   </si>
   <si>
-    <t>CF, CG, PR, SC, SH</t>
-  </si>
-  <si>
-    <t>Representing collector-filterer, collector-gatherer, predator, scraper, and shredder, respectively. Input NA for missing data.</t>
-  </si>
-  <si>
-    <t>HABIT</t>
-  </si>
-  <si>
-    <t>BU, CB, CN, SK, SP, SW</t>
-  </si>
-  <si>
-    <t>Representing burrower, climber, clinger, skater, sprawler, and swimmer, respectively. Input NA for missing data.</t>
-  </si>
-  <si>
     <t>TAXAID</t>
   </si>
   <si>
-    <t>&lt;text describing taxa&gt;</t>
-  </si>
-  <si>
-    <t>These are not required to match any external lists, though matching might have been used to associate taxa with traits for the input file</t>
-  </si>
-  <si>
     <t>N_TAXA</t>
   </si>
   <si>
-    <t>&lt;non-negative integer&gt;</t>
-  </si>
-  <si>
-    <t>This represents the count of individuals observed in the sample.</t>
-  </si>
-  <si>
     <t>LIFE_CYCLE</t>
   </si>
   <si>
-    <t>uni, semi, multi</t>
-  </si>
-  <si>
-    <t>Representing in the voltanism attirbute for an invertebrate.</t>
-  </si>
-  <si>
     <t>Index Region</t>
   </si>
   <si>
@@ -148,12 +94,6 @@
     <t>SNEP IBI Reference Sites</t>
   </si>
   <si>
-    <t>SNEP_2020_Bugs</t>
-  </si>
-  <si>
-    <t>LowGradientIBI</t>
-  </si>
-  <si>
     <t>% POET taxa (Plecoptera, Odonata, Ephemeroptera, and Trichoptera) (pt_POET)</t>
   </si>
   <si>
@@ -200,13 +140,279 @@
   </si>
   <si>
     <t>Response to stress</t>
+  </si>
+  <si>
+    <t>Required field (in CAPS)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Acceptable entries</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Entity_Year_Assemblage</t>
+  </si>
+  <si>
+    <t>Must match 'Acceptable entries' options exactly</t>
+  </si>
+  <si>
+    <t>Specifies which IBI to apply to each sample</t>
+  </si>
+  <si>
+    <t>STATIONID</t>
+  </si>
+  <si>
+    <t>Unique station identifier</t>
+  </si>
+  <si>
+    <t>Letters and/or numbers. Example: B0950</t>
+  </si>
+  <si>
+    <t>Corresponds with UniqueID in the MassDEP database</t>
+  </si>
+  <si>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>Unique sample identifier</t>
+  </si>
+  <si>
+    <t>Letters and/or numbers. Example: 2017004</t>
+  </si>
+  <si>
+    <t>Corresponds with BenSampID in the MassDEP database</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Number, in decimal degrees. Example: 41.1864</t>
+  </si>
+  <si>
+    <t>NAD83 datum</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Number, in decimal degrees. Example: -73.3429</t>
+  </si>
+  <si>
+    <t>COLLDATE</t>
+  </si>
+  <si>
+    <t>Collection date</t>
+  </si>
+  <si>
+    <t>Preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
+  </si>
+  <si>
+    <t>Other date formats can be used but Month/Day/Year (4-digit) is recommended</t>
+  </si>
+  <si>
+    <t>COLLMETH</t>
+  </si>
+  <si>
+    <t>Collection method</t>
+  </si>
+  <si>
+    <t>Unique taxa identifier</t>
+  </si>
+  <si>
+    <t>Letters or numbers. Example: Rhyacophila atrata</t>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant taxa (also referred to as non-distinct taxa) are excluded from richness metric calculations but are counted in the other metrics </t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (redundant taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <t>Non-target taxa are not part of the intended capture list (e.g., Hemiptera, Decapoda, terrestrial). They are excluded from all metric calculations</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (Non-target taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <t>PHYLUM</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
+  </si>
+  <si>
+    <t>Letters. If no entry, leave blank</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Insecta)</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Coleoptera)</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Elmidae)</t>
+  </si>
+  <si>
+    <t>SUBFAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Orthocladiinae)</t>
+  </si>
+  <si>
+    <t>TRIBE</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Chironomini)</t>
+  </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Rhyacophila)</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
+  </si>
+  <si>
+    <t>Five options (select one only): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>Number. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>Three options (select one only): UNI, SEMI, MULTI. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>One option: SNEP_2020_Bugs</t>
+  </si>
+  <si>
+    <t>One option (select one only): LowGradientIBI</t>
+  </si>
+  <si>
+    <t>Must match 'Acceptable entries' options exactly.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The taxa list should match with the FinalID field in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[TaxaTranslator table](https://github.com/Blocktt/SNEPtools/tree/main/reports)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Taxa should be identified to the lowest practical taxonomic resolution. I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f not, results should be interpreted with caution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Criteria for designating redundant taxa should be consistent with the [</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExcludeDecisionCriteria document](https://github.com/Blocktt/SNEPtools/tree/main/reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Letters or numbers. Example: Multihab</t>
+  </si>
+  <si>
+    <t>Values range from 0 (most intolerant) to 10 (most tolerant). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should match with the entries in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Low Gradient Taxa Attribute Table](https://github.com/Blocktt/SNEPtools/tree/main/reports)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +433,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +473,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -283,6 +530,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,124 +878,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D70E99-7595-41AF-ADE9-AB988ED9D0C8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="150.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="179.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
+      <c r="B23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F79B44-77D1-422F-8B96-8F5C8A5AA434}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -744,10 +1239,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -755,68 +1250,68 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -840,30 +1335,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -886,7 +1381,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -919,15 +1414,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1150,6 +1636,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
@@ -1168,14 +1663,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1192,4 +1679,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\SNEPIBITools\inst\shiny-examples\SNEPtools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D570955E-BFA5-46D3-A3BA-59F867A8C9DE}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D72D0EB3-0749-469F-B300-051524A7BA8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>Scoring formula</t>
   </si>
@@ -169,33 +169,18 @@
     <t>Unique station identifier</t>
   </si>
   <si>
-    <t>Letters and/or numbers. Example: B0950</t>
-  </si>
-  <si>
-    <t>Corresponds with UniqueID in the MassDEP database</t>
-  </si>
-  <si>
     <t>SAMPLEID</t>
   </si>
   <si>
     <t>Unique sample identifier</t>
   </si>
   <si>
-    <t>Letters and/or numbers. Example: 2017004</t>
-  </si>
-  <si>
-    <t>Corresponds with BenSampID in the MassDEP database</t>
-  </si>
-  <si>
     <t>LAT</t>
   </si>
   <si>
     <t>Latitude</t>
   </si>
   <si>
-    <t>Number, in decimal degrees. Example: 41.1864</t>
-  </si>
-  <si>
     <t>NAD83 datum</t>
   </si>
   <si>
@@ -205,18 +190,12 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Number, in decimal degrees. Example: -73.3429</t>
-  </si>
-  <si>
     <t>COLLDATE</t>
   </si>
   <si>
     <t>Collection date</t>
   </si>
   <si>
-    <t>Preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
-  </si>
-  <si>
     <t>Other date formats can be used but Month/Day/Year (4-digit) is recommended</t>
   </si>
   <si>
@@ -229,15 +208,9 @@
     <t>Unique taxa identifier</t>
   </si>
   <si>
-    <t>Letters or numbers. Example: Rhyacophila atrata</t>
-  </si>
-  <si>
     <t>Number of individuals</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
   </si>
   <si>
-    <t>Letters. If no entry, leave blank</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
@@ -301,15 +271,9 @@
     <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
   </si>
   <si>
-    <t>Five options (select one only): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
-  </si>
-  <si>
     <t>TOLVAL</t>
   </si>
   <si>
-    <t>Number. If no attribute, leave blank</t>
-  </si>
-  <si>
     <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
   </si>
   <si>
@@ -323,6 +287,9 @@
   </si>
   <si>
     <t>Must match 'Acceptable entries' options exactly.</t>
+  </si>
+  <si>
+    <t>Values range from 0 (most intolerant) to 10 (most tolerant). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
   </si>
   <si>
     <r>
@@ -337,7 +304,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[TaxaTranslator table](https://github.com/Blocktt/SNEPtools/tree/main/reports)</t>
+      <t>[TaxaTranslator table](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep)</t>
     </r>
     <r>
       <rPr>
@@ -360,52 +327,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Criteria for designating redundant taxa should be consistent with the [</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExcludeDecisionCriteria document](https://github.com/Blocktt/SNEPtools/tree/main/reports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <t>Letters or numbers. Example: Multihab</t>
-  </si>
-  <si>
-    <t>Values range from 0 (most intolerant) to 10 (most tolerant). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Should match with the entries in the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Low Gradient Taxa Attribute Table](https://github.com/Blocktt/SNEPtools/tree/main/reports)</t>
-    </r>
+    <t>Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Should match with the entries in the [Low Gradient Taxa Attribute Table](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep)</t>
+  </si>
+  <si>
+    <t>Numeric, in decimal degrees. Example: 41.1864</t>
+  </si>
+  <si>
+    <t>Numeric, in decimal degrees. Example: -73.3429</t>
+  </si>
+  <si>
+    <t>Date, preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Text; Example: Multihab</t>
+  </si>
+  <si>
+    <t>Text; Example: Rhyacophila atrata</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text. If no entry, leave blank</t>
+  </si>
+  <si>
+    <t>Numeric. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Five options (multiple possible): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
   </si>
 </sst>
 </file>
@@ -463,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -548,15 +497,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -564,6 +504,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +824,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
@@ -928,13 +871,13 @@
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
@@ -942,92 +885,88 @@
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,13 +988,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,111 +1002,111 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,27 +1114,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,13 +1142,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/SNEPtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\SNEPIBITools\inst\shiny-examples\SNEPtools\Extras\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/SNEPtools/inst/shiny-examples/SNEPtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D72D0EB3-0749-469F-B300-051524A7BA8D}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BE0F54B2-C118-436A-B56E-1EA9689C4BC4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
@@ -292,6 +292,36 @@
     <t>Values range from 0 (most intolerant) to 10 (most tolerant). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
   </si>
   <si>
+    <t>Numeric, in decimal degrees. Example: 41.1864</t>
+  </si>
+  <si>
+    <t>Numeric, in decimal degrees. Example: -73.3429</t>
+  </si>
+  <si>
+    <t>Date, preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Text; Example: Multihab</t>
+  </si>
+  <si>
+    <t>Text; Example: Rhyacophila atrata</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text. If no entry, leave blank</t>
+  </si>
+  <si>
+    <t>Numeric. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Five options (multiple possible): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The taxa list should match with the FinalID field in the </t>
     </r>
@@ -304,7 +334,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[TaxaTranslator table](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep)</t>
+      <t>[TaxaTranslator table](https://github.com/Blocktt/ShinyAppDocuments/tree/main/SNEPtools/Data_Prep)</t>
     </r>
     <r>
       <rPr>
@@ -327,40 +357,10 @@
     </r>
   </si>
   <si>
-    <t>Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep).</t>
-  </si>
-  <si>
-    <t>Should match with the entries in the [Low Gradient Taxa Attribute Table](https://github.com/Blocktt/SNEPtools/tree/main/Data_Prep)</t>
-  </si>
-  <si>
-    <t>Numeric, in decimal degrees. Example: 41.1864</t>
-  </si>
-  <si>
-    <t>Numeric, in decimal degrees. Example: -73.3429</t>
-  </si>
-  <si>
-    <t>Date, preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Text; Example: Multihab</t>
-  </si>
-  <si>
-    <t>Text; Example: Rhyacophila atrata</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Text. If no entry, leave blank</t>
-  </si>
-  <si>
-    <t>Numeric. If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>Five options (multiple possible): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
+    <t>Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/ShinyAppDocuments/tree/main/SNEPtools/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Should match with the entries in the [Low Gradient Taxa Attribute Table](https://github.com/Blocktt/ShinyAppDocuments/tree/main/SNEPtools/Data_Prep)</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D70E99-7595-41AF-ADE9-AB988ED9D0C8}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -897,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -909,7 +909,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>47</v>
@@ -923,7 +923,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>47</v>
@@ -937,7 +937,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>52</v>
@@ -951,7 +951,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="11"/>
     </row>
@@ -963,10 +963,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>57</v>
@@ -994,7 +994,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1019,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,10 +1061,10 @@
         <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>71</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>76</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1347,9 +1347,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,27 +1579,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1621,9 +1612,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>